--- a/biology/Zoologie/Adelonychia/Adelonychia.xlsx
+++ b/biology/Zoologie/Adelonychia/Adelonychia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adelonychia est un genre d'araignées mygalomorphes de la famille des Barychelidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelonychia est un genre d'araignées mygalomorphes de la famille des Barychelidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Inde et au Sri Lanka[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Inde et au Sri Lanka.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 23.0, 22/02/2022)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 23.0, 22/02/2022) :
 Adelonychia gravelyi (Siliwal, Molur &amp; Raven, 2009)
 Adelonychia halyi (Simon, 1892)
 Adelonychia nigrostriata Walsh, 1890
@@ -576,10 +592,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par Walsh en 1890 dans les Mygalidae.
-Diplothele[3] a été placée en synonymie par Blick en 2022[4].
+Diplothele a été placée en synonymie par Blick en 2022.
 </t>
         </is>
       </c>
@@ -608,7 +626,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Walsh, 1890 : « A new trap-door spider from Orissa. » Journal of the Asiatic Society of Bengal, part II (Natural Science), vol. 59, no 3, p. 269-270 (texte intégral).</t>
         </is>
